--- a/data/trans_orig/P75_P_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P75_P_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E372D297-60F6-4375-B4A8-DFA8121CFEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55A97D8-FCE7-4EA6-976D-27275ABF40CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41341084-9DCA-4CAB-AB12-9FDFEB6C86B6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59E150DB-93B8-4AE2-8BAC-9A525641233A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="490">
   <si>
     <t>Población según el nivel de estudios de su padre cuando tenían 12 años en 2012 (Tasa respuesta: 97,13%)</t>
   </si>
@@ -101,1393 +101,1384 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>6,29%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>3,6%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>38,6%</t>
   </si>
   <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
   </si>
   <si>
     <t>42,56%</t>
   </si>
   <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
+    <t>41,72%</t>
   </si>
   <si>
     <t>9,89%</t>
@@ -1496,22 +1487,22 @@
     <t>8,86%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,93%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>10,68%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>11,62%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1926,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942FA1CC-4C07-4E6C-AC7E-6DBA8DB4A77A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D52C5F-6700-48B7-8B17-4BB7E23EE329}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2939,13 +2930,13 @@
         <v>17439</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2954,13 +2945,13 @@
         <v>34677</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2966,13 @@
         <v>50535</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -2990,13 +2981,13 @@
         <v>36838</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>85</v>
@@ -3005,13 +2996,13 @@
         <v>87373</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3017,13 @@
         <v>50380</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3041,13 +3032,13 @@
         <v>39250</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -3056,13 +3047,13 @@
         <v>89630</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3068,13 @@
         <v>144998</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>174</v>
@@ -3092,13 +3083,13 @@
         <v>186855</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>314</v>
@@ -3107,13 +3098,13 @@
         <v>331853</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3119,13 @@
         <v>34818</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -3143,13 +3134,13 @@
         <v>44000</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -3158,13 +3149,13 @@
         <v>78817</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,7 +3211,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3232,13 +3223,13 @@
         <v>15037</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -3247,13 +3238,13 @@
         <v>17672</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -3262,13 +3253,13 @@
         <v>32709</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3274,13 @@
         <v>23040</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3298,13 +3289,13 @@
         <v>11451</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -3313,13 +3304,13 @@
         <v>34491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3325,13 @@
         <v>32514</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>26</v>
@@ -3349,13 +3340,13 @@
         <v>28496</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -3364,13 +3355,13 @@
         <v>61011</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3376,13 @@
         <v>73089</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -3400,13 +3391,13 @@
         <v>62489</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -3415,13 +3406,13 @@
         <v>135578</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3427,13 @@
         <v>136950</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
         <v>125</v>
@@ -3451,13 +3442,13 @@
         <v>134275</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M32" s="7">
         <v>254</v>
@@ -3466,13 +3457,13 @@
         <v>271225</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3478,13 @@
         <v>270237</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H33" s="7">
         <v>258</v>
@@ -3502,13 +3493,13 @@
         <v>275688</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M33" s="7">
         <v>508</v>
@@ -3517,13 +3508,13 @@
         <v>545926</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3529,13 @@
         <v>84589</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>102</v>
@@ -3553,13 +3544,13 @@
         <v>108318</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>185</v>
@@ -3568,13 +3559,13 @@
         <v>192908</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,7 +3621,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3642,13 +3633,13 @@
         <v>4082</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3657,13 +3648,13 @@
         <v>5319</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -3672,13 +3663,13 @@
         <v>9401</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3684,13 @@
         <v>7903</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3708,13 +3699,13 @@
         <v>1956</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -3723,13 +3714,13 @@
         <v>9860</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3735,13 @@
         <v>8532</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -3759,13 +3750,13 @@
         <v>7677</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M38" s="7">
         <v>15</v>
@@ -3774,13 +3765,13 @@
         <v>16208</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>234</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3786,13 @@
         <v>50995</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H39" s="7">
         <v>39</v>
@@ -3810,13 +3801,13 @@
         <v>38801</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M39" s="7">
         <v>83</v>
@@ -3825,13 +3816,13 @@
         <v>89795</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3837,13 @@
         <v>57010</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H40" s="7">
         <v>50</v>
@@ -3861,13 +3852,13 @@
         <v>51324</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
         <v>105</v>
@@ -3876,13 +3867,13 @@
         <v>108334</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3888,13 @@
         <v>60125</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H41" s="7">
         <v>84</v>
@@ -3912,13 +3903,13 @@
         <v>85872</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
         <v>140</v>
@@ -3927,13 +3918,13 @@
         <v>145997</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3939,13 @@
         <v>19851</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3966,10 +3957,10 @@
         <v>73</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M42" s="7">
         <v>42</v>
@@ -3978,13 +3969,13 @@
         <v>44808</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,7 +4031,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -4052,13 +4043,13 @@
         <v>9095</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4067,13 +4058,13 @@
         <v>2913</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -4082,13 +4073,13 @@
         <v>12008</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4094,13 @@
         <v>8681</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -4118,13 +4109,13 @@
         <v>5700</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M45" s="7">
         <v>14</v>
@@ -4136,10 +4127,10 @@
         <v>99</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4145,13 @@
         <v>15786</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -4169,13 +4160,13 @@
         <v>11104</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -4184,13 +4175,13 @@
         <v>26890</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4196,13 @@
         <v>38431</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H47" s="7">
         <v>23</v>
@@ -4220,13 +4211,13 @@
         <v>23434</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M47" s="7">
         <v>60</v>
@@ -4235,13 +4226,13 @@
         <v>61864</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4247,13 @@
         <v>41602</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H48" s="7">
         <v>35</v>
@@ -4271,13 +4262,13 @@
         <v>35984</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M48" s="7">
         <v>73</v>
@@ -4286,13 +4277,13 @@
         <v>77585</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>308</v>
+        <v>73</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4298,13 @@
         <v>117467</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H49" s="7">
         <v>152</v>
@@ -4322,13 +4313,13 @@
         <v>159477</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M49" s="7">
         <v>266</v>
@@ -4337,13 +4328,13 @@
         <v>276943</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4349,13 @@
         <v>37905</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H50" s="7">
         <v>34</v>
@@ -4373,13 +4364,13 @@
         <v>34575</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M50" s="7">
         <v>71</v>
@@ -4388,13 +4379,13 @@
         <v>72480</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,7 +4441,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4462,13 +4453,13 @@
         <v>20918</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H52" s="7">
         <v>22</v>
@@ -4477,13 +4468,13 @@
         <v>25980</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>331</v>
+        <v>210</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M52" s="7">
         <v>37</v>
@@ -4492,13 +4483,13 @@
         <v>46898</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4504,13 @@
         <v>23749</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>30</v>
+        <v>332</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H53" s="7">
         <v>20</v>
@@ -4528,13 +4519,13 @@
         <v>22356</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>340</v>
+        <v>37</v>
       </c>
       <c r="M53" s="7">
         <v>42</v>
@@ -4543,13 +4534,13 @@
         <v>46105</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4555,13 @@
         <v>47123</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>110</v>
+        <v>339</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H54" s="7">
         <v>44</v>
@@ -4579,13 +4570,13 @@
         <v>49201</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M54" s="7">
         <v>88</v>
@@ -4594,13 +4585,13 @@
         <v>96324</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4606,13 @@
         <v>89446</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="H55" s="7">
         <v>65</v>
@@ -4630,13 +4621,13 @@
         <v>72587</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M55" s="7">
         <v>149</v>
@@ -4645,13 +4636,13 @@
         <v>162033</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4657,13 @@
         <v>128335</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H56" s="7">
         <v>127</v>
@@ -4681,13 +4672,13 @@
         <v>140424</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M56" s="7">
         <v>248</v>
@@ -4696,13 +4687,13 @@
         <v>268759</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4708,13 @@
         <v>277537</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H57" s="7">
         <v>267</v>
@@ -4732,13 +4723,13 @@
         <v>284852</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M57" s="7">
         <v>529</v>
@@ -4747,13 +4738,13 @@
         <v>562389</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>375</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4759,13 @@
         <v>49525</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H58" s="7">
         <v>73</v>
@@ -4783,13 +4774,13 @@
         <v>78168</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="M58" s="7">
         <v>120</v>
@@ -4798,13 +4789,13 @@
         <v>127693</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>384</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,7 +4851,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4872,13 +4863,13 @@
         <v>32577</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>151</v>
+        <v>378</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H60" s="7">
         <v>24</v>
@@ -4887,13 +4878,13 @@
         <v>27002</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>103</v>
+        <v>380</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M60" s="7">
         <v>51</v>
@@ -4902,13 +4893,13 @@
         <v>59579</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4914,13 @@
         <v>21198</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H61" s="7">
         <v>20</v>
@@ -4938,13 +4929,13 @@
         <v>22288</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>394</v>
+        <v>91</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>395</v>
+        <v>149</v>
       </c>
       <c r="M61" s="7">
         <v>40</v>
@@ -4953,13 +4944,13 @@
         <v>43486</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4965,13 @@
         <v>52488</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>401</v>
+        <v>52</v>
       </c>
       <c r="H62" s="7">
         <v>52</v>
@@ -4989,13 +4980,13 @@
         <v>55922</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M62" s="7">
         <v>104</v>
@@ -5004,13 +4995,13 @@
         <v>108410</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5016,13 @@
         <v>151726</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="H63" s="7">
         <v>136</v>
@@ -5040,13 +5031,13 @@
         <v>145445</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>206</v>
+        <v>400</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M63" s="7">
         <v>278</v>
@@ -5055,13 +5046,13 @@
         <v>297171</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5067,13 @@
         <v>265074</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="H64" s="7">
         <v>260</v>
@@ -5091,13 +5082,13 @@
         <v>282708</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M64" s="7">
         <v>502</v>
@@ -5106,13 +5097,13 @@
         <v>547782</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5118,13 @@
         <v>196665</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="H65" s="7">
         <v>220</v>
@@ -5142,13 +5133,13 @@
         <v>240477</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M65" s="7">
         <v>402</v>
@@ -5157,13 +5148,13 @@
         <v>437142</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5169,13 @@
         <v>45371</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H66" s="7">
         <v>38</v>
@@ -5193,13 +5184,13 @@
         <v>41631</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M66" s="7">
         <v>77</v>
@@ -5208,13 +5199,13 @@
         <v>87002</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5273,13 @@
         <v>107590</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H68" s="7">
         <v>86</v>
@@ -5297,13 +5288,13 @@
         <v>100435</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>443</v>
+        <v>19</v>
       </c>
       <c r="M68" s="7">
         <v>172</v>
@@ -5312,13 +5303,13 @@
         <v>208025</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>19</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5324,13 @@
         <v>106009</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>286</v>
+        <v>439</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>330</v>
+        <v>441</v>
       </c>
       <c r="H69" s="7">
         <v>70</v>
@@ -5348,13 +5339,13 @@
         <v>76125</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>155</v>
+        <v>443</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="M69" s="7">
         <v>171</v>
@@ -5363,13 +5354,13 @@
         <v>182134</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>223</v>
+        <v>445</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5375,13 @@
         <v>197614</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H70" s="7">
         <v>174</v>
@@ -5399,13 +5390,13 @@
         <v>190859</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M70" s="7">
         <v>362</v>
@@ -5414,13 +5405,13 @@
         <v>388472</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5426,13 @@
         <v>510953</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H71" s="7">
         <v>383</v>
@@ -5450,13 +5441,13 @@
         <v>409993</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M71" s="7">
         <v>862</v>
@@ -5465,13 +5456,13 @@
         <v>920946</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5477,13 @@
         <v>787625</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H72" s="7">
         <v>744</v>
@@ -5501,13 +5492,13 @@
         <v>804468</v>
       </c>
       <c r="J72" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M72" s="7">
         <v>1481</v>
@@ -5516,13 +5507,13 @@
         <v>1592093</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5528,13 @@
         <v>1281199</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H73" s="7">
         <v>1372</v>
@@ -5552,13 +5543,13 @@
         <v>1470768</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M73" s="7">
         <v>2579</v>
@@ -5567,13 +5558,13 @@
         <v>2751967</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>482</v>
+        <v>65</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5579,13 @@
         <v>328185</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H74" s="7">
         <v>378</v>
@@ -5603,13 +5594,13 @@
         <v>402977</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="M74" s="7">
         <v>693</v>
@@ -5618,13 +5609,13 @@
         <v>731162</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>287</v>
+        <v>487</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,7 +5671,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75_P_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P75_P_2012-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55A97D8-FCE7-4EA6-976D-27275ABF40CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA7383A9-F123-423B-B471-78715C3ECE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59E150DB-93B8-4AE2-8BAC-9A525641233A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9931C17E-7F97-41DC-9B42-CB0354D7D8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="495">
   <si>
     <t>Población según el nivel de estudios de su padre cuando tenían 12 años en 2012 (Tasa respuesta: 97,13%)</t>
   </si>
@@ -98,1411 +98,1426 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>10,68%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1917,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D52C5F-6700-48B7-8B17-4BB7E23EE329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8057FF86-27C3-4976-8F3F-2E4CF0AA238B}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2894,13 +2909,13 @@
         <v>17429</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2930,13 @@
         <v>17238</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2930,13 +2945,13 @@
         <v>17439</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2945,13 +2960,13 @@
         <v>34677</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2981,13 @@
         <v>50535</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -2981,13 +2996,13 @@
         <v>36838</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>85</v>
@@ -2996,13 +3011,13 @@
         <v>87373</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3032,13 @@
         <v>50380</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3032,13 +3047,13 @@
         <v>39250</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -3047,13 +3062,13 @@
         <v>89630</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3083,13 @@
         <v>144998</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>174</v>
@@ -3083,13 +3098,13 @@
         <v>186855</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>314</v>
@@ -3098,13 +3113,13 @@
         <v>331853</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3134,13 @@
         <v>34818</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>41</v>
@@ -3134,13 +3149,13 @@
         <v>44000</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -3149,13 +3164,13 @@
         <v>78817</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,7 +3226,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3223,13 +3238,13 @@
         <v>15037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -3238,13 +3253,13 @@
         <v>17672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -3253,13 +3268,13 @@
         <v>32709</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3289,13 @@
         <v>23040</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3289,13 +3304,13 @@
         <v>11451</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -3304,13 +3319,13 @@
         <v>34491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3340,13 @@
         <v>32514</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H30" s="7">
         <v>26</v>
@@ -3340,13 +3355,13 @@
         <v>28496</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -3355,13 +3370,13 @@
         <v>61011</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3391,13 @@
         <v>73089</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H31" s="7">
         <v>57</v>
@@ -3391,13 +3406,13 @@
         <v>62489</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -3406,13 +3421,13 @@
         <v>135578</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3442,13 @@
         <v>136950</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>125</v>
@@ -3442,13 +3457,13 @@
         <v>134275</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M32" s="7">
         <v>254</v>
@@ -3457,13 +3472,13 @@
         <v>271225</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3493,13 @@
         <v>270237</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H33" s="7">
         <v>258</v>
@@ -3493,13 +3508,13 @@
         <v>275688</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M33" s="7">
         <v>508</v>
@@ -3508,13 +3523,13 @@
         <v>545926</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3544,13 @@
         <v>84589</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>102</v>
@@ -3544,13 +3559,13 @@
         <v>108318</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M34" s="7">
         <v>185</v>
@@ -3559,13 +3574,13 @@
         <v>192908</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3636,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3633,13 +3648,13 @@
         <v>4082</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -3648,13 +3663,13 @@
         <v>5319</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -3663,13 +3678,13 @@
         <v>9401</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3699,13 @@
         <v>7903</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3699,13 +3714,13 @@
         <v>1956</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -3714,13 +3729,13 @@
         <v>9860</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3750,13 @@
         <v>8532</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -3750,10 +3765,10 @@
         <v>7677</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>226</v>
@@ -3942,10 +3957,10 @@
         <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3957,10 +3972,10 @@
         <v>73</v>
       </c>
       <c r="K42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M42" s="7">
         <v>42</v>
@@ -3969,13 +3984,13 @@
         <v>44808</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4046,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -4043,13 +4058,13 @@
         <v>9095</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -4058,13 +4073,13 @@
         <v>2913</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
@@ -4073,13 +4088,13 @@
         <v>12008</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4109,13 @@
         <v>8681</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -4109,13 +4124,13 @@
         <v>5700</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M45" s="7">
         <v>14</v>
@@ -4124,13 +4139,13 @@
         <v>14380</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>280</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4160,13 @@
         <v>15786</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H46" s="7">
         <v>10</v>
@@ -4160,13 +4175,13 @@
         <v>11104</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -4175,13 +4190,13 @@
         <v>26890</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4211,13 @@
         <v>38431</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H47" s="7">
         <v>23</v>
@@ -4211,13 +4226,13 @@
         <v>23434</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M47" s="7">
         <v>60</v>
@@ -4226,13 +4241,13 @@
         <v>61864</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4262,13 @@
         <v>41602</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>301</v>
+        <v>62</v>
       </c>
       <c r="H48" s="7">
         <v>35</v>
@@ -4262,13 +4277,13 @@
         <v>35984</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M48" s="7">
         <v>73</v>
@@ -4277,13 +4292,13 @@
         <v>77585</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4313,13 @@
         <v>117467</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H49" s="7">
         <v>152</v>
@@ -4313,13 +4328,13 @@
         <v>159477</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M49" s="7">
         <v>266</v>
@@ -4328,13 +4343,13 @@
         <v>276943</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4364,13 @@
         <v>37905</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H50" s="7">
         <v>34</v>
@@ -4364,13 +4379,13 @@
         <v>34575</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="M50" s="7">
         <v>71</v>
@@ -4379,13 +4394,13 @@
         <v>72480</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,7 +4456,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4453,13 +4468,13 @@
         <v>20918</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H52" s="7">
         <v>22</v>
@@ -4468,13 +4483,13 @@
         <v>25980</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M52" s="7">
         <v>37</v>
@@ -4483,13 +4498,13 @@
         <v>46898</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4519,13 @@
         <v>23749</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H53" s="7">
         <v>20</v>
@@ -4519,13 +4534,13 @@
         <v>22356</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M53" s="7">
         <v>42</v>
@@ -4534,13 +4549,13 @@
         <v>46105</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4570,13 @@
         <v>47123</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H54" s="7">
         <v>44</v>
@@ -4570,13 +4585,13 @@
         <v>49201</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>109</v>
+        <v>341</v>
       </c>
       <c r="K54" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M54" s="7">
         <v>88</v>
@@ -4585,13 +4600,13 @@
         <v>96324</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4621,13 @@
         <v>89446</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H55" s="7">
         <v>65</v>
@@ -4675,10 +4690,10 @@
         <v>358</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M56" s="7">
         <v>248</v>
@@ -4687,13 +4702,13 @@
         <v>268759</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4723,13 @@
         <v>277537</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H57" s="7">
         <v>267</v>
@@ -4723,13 +4738,13 @@
         <v>284852</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M57" s="7">
         <v>529</v>
@@ -4738,13 +4753,13 @@
         <v>562389</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>196</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4774,13 @@
         <v>49525</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H58" s="7">
         <v>73</v>
@@ -4774,13 +4789,13 @@
         <v>78168</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="M58" s="7">
         <v>120</v>
@@ -4789,13 +4804,13 @@
         <v>127693</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4866,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4863,13 +4878,13 @@
         <v>32577</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H60" s="7">
         <v>24</v>
@@ -4878,13 +4893,13 @@
         <v>27002</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M60" s="7">
         <v>51</v>
@@ -4893,13 +4908,13 @@
         <v>59579</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4929,13 @@
         <v>21198</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H61" s="7">
         <v>20</v>
@@ -4929,13 +4944,13 @@
         <v>22288</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="M61" s="7">
         <v>40</v>
@@ -4944,13 +4959,13 @@
         <v>43486</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>388</v>
+        <v>217</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4980,13 @@
         <v>52488</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>52</v>
+        <v>397</v>
       </c>
       <c r="H62" s="7">
         <v>52</v>
@@ -4980,13 +4995,13 @@
         <v>55922</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>393</v>
+        <v>104</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M62" s="7">
         <v>104</v>
@@ -4995,13 +5010,13 @@
         <v>108410</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5031,13 @@
         <v>151726</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H63" s="7">
         <v>136</v>
@@ -5031,13 +5046,13 @@
         <v>145445</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M63" s="7">
         <v>278</v>
@@ -5046,13 +5061,13 @@
         <v>297171</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5082,13 @@
         <v>265074</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H64" s="7">
         <v>260</v>
@@ -5082,13 +5097,13 @@
         <v>282708</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M64" s="7">
         <v>502</v>
@@ -5097,13 +5112,13 @@
         <v>547782</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5133,13 @@
         <v>196665</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="H65" s="7">
         <v>220</v>
@@ -5133,13 +5148,13 @@
         <v>240477</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M65" s="7">
         <v>402</v>
@@ -5148,13 +5163,13 @@
         <v>437142</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5184,13 @@
         <v>45371</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H66" s="7">
         <v>38</v>
@@ -5184,13 +5199,13 @@
         <v>41631</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M66" s="7">
         <v>77</v>
@@ -5199,13 +5214,13 @@
         <v>87002</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5288,13 @@
         <v>107590</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>41</v>
+        <v>438</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H68" s="7">
         <v>86</v>
@@ -5288,13 +5303,13 @@
         <v>100435</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>435</v>
+        <v>218</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="M68" s="7">
         <v>172</v>
@@ -5303,13 +5318,13 @@
         <v>208025</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5339,13 @@
         <v>106009</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>440</v>
+        <v>336</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>441</v>
+        <v>93</v>
       </c>
       <c r="H69" s="7">
         <v>70</v>
@@ -5339,13 +5354,13 @@
         <v>76125</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>33</v>
+        <v>447</v>
       </c>
       <c r="M69" s="7">
         <v>171</v>
@@ -5354,13 +5369,13 @@
         <v>182134</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5390,13 @@
         <v>197614</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H70" s="7">
         <v>174</v>
@@ -5390,13 +5405,13 @@
         <v>190859</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M70" s="7">
         <v>362</v>
@@ -5405,13 +5420,13 @@
         <v>388472</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5441,13 @@
         <v>510953</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="H71" s="7">
         <v>383</v>
@@ -5441,13 +5456,13 @@
         <v>409993</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M71" s="7">
         <v>862</v>
@@ -5456,13 +5471,13 @@
         <v>920946</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5492,13 @@
         <v>787625</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H72" s="7">
         <v>744</v>
@@ -5492,13 +5507,13 @@
         <v>804468</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M72" s="7">
         <v>1481</v>
@@ -5507,13 +5522,13 @@
         <v>1592093</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5543,13 @@
         <v>1281199</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>475</v>
+        <v>127</v>
       </c>
       <c r="H73" s="7">
         <v>1372</v>
@@ -5543,13 +5558,13 @@
         <v>1470768</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M73" s="7">
         <v>2579</v>
@@ -5558,13 +5573,13 @@
         <v>2751967</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>65</v>
+        <v>483</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5594,13 @@
         <v>328185</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H74" s="7">
         <v>378</v>
@@ -5594,13 +5609,13 @@
         <v>402977</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="M74" s="7">
         <v>693</v>
@@ -5609,13 +5624,13 @@
         <v>731162</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,7 +5686,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
